--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\Requisition for Mugdho Corporation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\Others\Requisition for Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Total=</t>
   </si>
@@ -121,12 +121,6 @@
     <t>1% Value</t>
   </si>
   <si>
-    <t>Realme 8(5G)</t>
-  </si>
-  <si>
-    <t>Narzo 30</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -139,7 +133,19 @@
     <t>Will be paid in advance</t>
   </si>
   <si>
-    <t>Deposit (11.11.2021)</t>
+    <t>GT NEO 2</t>
+  </si>
+  <si>
+    <t>C25Y(4/64)</t>
+  </si>
+  <si>
+    <t>Narzo 50i</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -620,12 +626,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,51 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1066,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44511</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44514</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1099,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1115,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1129,8 +1135,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>35</v>
+      <c r="A8" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -1138,14 +1144,16 @@
       <c r="C8" s="8">
         <v>8310</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>0</v>
+        <v>166200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1167,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1175,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,8 +1197,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>37</v>
+      <c r="A12" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
@@ -1198,16 +1206,14 @@
       <c r="C12" s="8">
         <v>11380</v>
       </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="2">D12*C12</f>
-        <v>569000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1221,14 +1227,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>34</v>
+      <c r="A14" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="8">
-        <v>18330</v>
+        <v>10150</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
@@ -1237,12 +1243,12 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>18330</v>
+        <v>10150</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
@@ -1251,14 +1257,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>20</v>
+      <c r="A16" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8">
-        <v>13210</v>
+        <v>12750</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
@@ -1267,12 +1273,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="8">
-        <v>13210</v>
+        <v>12750</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
@@ -1281,7 +1287,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1297,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1327,7 +1333,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1341,14 +1347,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>33</v>
+      <c r="A22" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>20970</v>
+        <v>36420</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1357,22 +1363,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8">
-        <v>20970</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>36420</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>364200</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>36</v>
+      <c r="A24" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>17</v>
@@ -1387,7 +1395,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1401,46 +1409,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>569000</v>
+        <v>530400</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="19">
-        <v>2069000</v>
+        <v>1500000</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>1500000</v>
+        <v>969600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1457,7 +1466,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1482,28 +1490,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1727,8 +1735,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,6 +626,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,15 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44514</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44515</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1144,16 +1144,14 @@
       <c r="C8" s="8">
         <v>8310</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>166200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1165,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1183,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1213,21 +1211,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1363,23 +1363,21 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="8">
         <v>36420</v>
       </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>364200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1395,7 +1393,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1409,46 +1407,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>530400</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="19">
-        <v>1500000</v>
+        <v>969600</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>969600</v>
+        <v>742000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1465,7 +1464,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1490,28 +1488,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1735,8 +1733,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -556,14 +556,14 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,10 +572,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,16 +584,16 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +602,7 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,109 +620,109 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1144,14 +1144,16 @@
       <c r="C8" s="8">
         <v>8310</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>0</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1167,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1181,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1197,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1211,23 +1213,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>20</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>227600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1273,7 +1273,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1407,46 +1407,48 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>227600</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="19">
-        <v>969600</v>
+        <v>348200</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>742000</v>
+        <v>265100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
@@ -1462,8 +1464,6 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1488,20 +1488,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1733,8 +1733,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -130,9 +130,6 @@
     <t>C21Y(4/64)</t>
   </si>
   <si>
-    <t>Will be paid in advance</t>
-  </si>
-  <si>
     <t>GT NEO 2</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>Need to deposit</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1160,10 +1160,12 @@
       <c r="C9" s="8">
         <v>8310</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1220,15 +1222,17 @@
       <c r="C13" s="8">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>455200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -1258,7 +1262,7 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
@@ -1348,7 +1352,7 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
@@ -1365,7 +1369,7 @@
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8">
         <v>36420</v>
@@ -1414,43 +1418,39 @@
       <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>83100</v>
+        <v>621400</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="19">
-        <v>348200</v>
+        <v>265100</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>265100</v>
+        <v>-356300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1464,6 +1464,10 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,12 +626,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,51 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44518</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44521</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,13 +1105,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>8290</v>
       </c>
       <c r="D6" s="3"/>
@@ -1121,11 +1121,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>8290</v>
       </c>
       <c r="D7" s="3"/>
@@ -1135,47 +1135,43 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="3">
         <v>8310</v>
       </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="1">D8*C8</f>
-        <v>83100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="3">
         <v>8310</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>83100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>10070</v>
       </c>
       <c r="D10" s="3"/>
@@ -1185,11 +1181,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="3">
         <v>10070</v>
       </c>
       <c r="D11" s="3"/>
@@ -1199,13 +1195,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>11380</v>
       </c>
       <c r="D12" s="3"/>
@@ -1215,29 +1211,27 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>40</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>455200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>10150</v>
       </c>
       <c r="D14" s="3"/>
@@ -1247,11 +1241,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="3">
         <v>10150</v>
       </c>
       <c r="D15" s="3"/>
@@ -1261,43 +1255,47 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>12750</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>637500</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="3">
         <v>12750</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>637500</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>14110</v>
       </c>
       <c r="D18" s="3"/>
@@ -1307,11 +1305,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="3">
         <v>14110</v>
       </c>
       <c r="D19" s="3"/>
@@ -1321,13 +1319,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>20640</v>
       </c>
       <c r="D20" s="3"/>
@@ -1337,11 +1335,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="3">
         <v>20640</v>
       </c>
       <c r="D21" s="3"/>
@@ -1351,13 +1349,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>36420</v>
       </c>
       <c r="D22" s="3"/>
@@ -1367,11 +1365,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>36420</v>
       </c>
       <c r="D23" s="3"/>
@@ -1381,13 +1379,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>31210</v>
       </c>
       <c r="D24" s="3"/>
@@ -1397,11 +1395,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>31210</v>
       </c>
       <c r="D25" s="3"/>
@@ -1411,46 +1409,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>621400</v>
+        <v>1275000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="19">
-        <v>265100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-356300</v>
+        <v>-1275000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1467,7 +1466,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1492,28 +1490,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1737,8 +1735,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,6 +626,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,15 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44521</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44523</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1211,21 +1211,23 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1241,7 +1243,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1265,31 +1267,29 @@
         <v>12750</v>
       </c>
       <c r="D16" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>637500</v>
+        <v>382500</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>12750</v>
       </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>637500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1409,46 +1409,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>1275000</v>
+        <v>610100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-1275000</v>
+        <v>-610100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1465,7 +1466,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1490,28 +1490,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1735,8 +1735,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,6 +626,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,12 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1219,15 +1219,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>227600</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1267,15 +1267,15 @@
         <v>12750</v>
       </c>
       <c r="D16" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>382500</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1365,7 +1365,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1409,46 +1409,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>610100</v>
+        <v>368800</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-610100</v>
+        <v>-368800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
@@ -1465,7 +1466,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1490,20 +1490,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1735,8 +1735,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Total=</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Need to deposit</t>
+  </si>
+  <si>
+    <t>C11(4/64)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1075,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1166,17 +1169,17 @@
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>10070</v>
+        <v>10100</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:E11" si="2">D10*C10</f>
         <v>0</v>
       </c>
     </row>
@@ -1186,12 +1189,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>10070</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>10100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>101000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1206,7 +1211,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E13" si="2">D12*C12</f>
+        <f t="shared" ref="E12:E13" si="3">D12*C12</f>
         <v>0</v>
       </c>
     </row>
@@ -1218,12 +1223,10 @@
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>113800</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1266,12 +1269,10 @@
       <c r="C16" s="3">
         <v>12750</v>
       </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>255000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1300,7 +1301,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E21" si="3">D18*C18</f>
+        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1345,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1416,11 +1417,11 @@
       <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>368800</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1444,11 +1445,13 @@
       <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-368800</v>
+        <v>-101000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
@@ -1460,12 +1463,10 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -629,12 +629,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,51 +687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1052,22 +1052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1075,20 +1075,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44525</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44529</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1192,15 +1192,15 @@
         <v>10100</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>101000</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1410,50 +1410,46 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>101000</v>
+        <v>505000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-101000</v>
+        <v>-505000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1467,6 +1463,10 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1491,28 +1491,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1736,8 +1736,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -629,6 +629,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,15 +687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1052,22 +1052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1075,20 +1075,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44529</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44530</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1192,15 +1192,15 @@
         <v>10100</v>
       </c>
       <c r="D11" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>505000</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1260,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1276,21 +1276,23 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>12750</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>127500</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1306,7 +1308,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1322,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1336,7 +1338,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1352,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1366,7 +1368,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1382,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1396,7 +1398,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1410,46 +1412,47 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>505000</v>
+        <v>228500</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18">
         <f>E27-E26</f>
-        <v>-505000</v>
+        <v>-228500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1466,7 +1469,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1491,28 +1493,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1736,8 +1738,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Total=</t>
   </si>
@@ -136,19 +136,16 @@
     <t>C25Y(4/64)</t>
   </si>
   <si>
-    <t>Narzo 50i</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Need to deposit</t>
-  </si>
-  <si>
     <t>C11(4/64)</t>
+  </si>
+  <si>
+    <t>Deposit(01.12.2021)</t>
+  </si>
+  <si>
+    <t>Will be paid in advance(01.12.2021)</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -629,6 +626,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,12 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1052,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1075,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1108,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1124,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1133,19 +1130,19 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E23" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>8310</v>
+        <v>8410</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2">
@@ -1154,12 +1151,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>8310</v>
+        <v>8410</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2">
@@ -1168,14 +1165,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>42</v>
+      <c r="A10" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
@@ -1184,23 +1181,23 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>101000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1216,7 +1213,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1230,90 +1227,88 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>38</v>
+      <c r="A14" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>10150</v>
+        <v>13020</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f>D14*C14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>10150</v>
+        <v>13020</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f>D15*C15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>37</v>
+      <c r="A16" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
-        <v>12750</v>
+        <v>14300</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f>D16*C16</f>
+        <f t="shared" ref="E16:E19" si="4">D16*C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>12750</v>
-      </c>
-      <c r="D17" s="3">
-        <v>10</v>
-      </c>
+        <v>14300</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <f>D17*C17</f>
-        <v>127500</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>21</v>
+      <c r="A18" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>14110</v>
+        <v>20640</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>14110</v>
+        <v>20640</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
@@ -1322,44 +1317,44 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>9</v>
+      <c r="A20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>20640</v>
+        <v>36420</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3">
-        <v>20640</v>
+        <v>36420</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>36</v>
+      <c r="A22" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>36420</v>
+        <v>31210</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1368,12 +1363,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>36420</v>
+        <v>31210</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1382,93 +1377,62 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="12">
+        <f>SUM(D6:D23)</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="18">
+        <f>SUM(E6:E23)</f>
+        <v>204000</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>31210</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A25" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="19">
+        <v>214800</v>
+      </c>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="12">
-        <f>SUM(D6:D25)</f>
-        <v>20</v>
-      </c>
+      <c r="A26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="18">
-        <f>SUM(E6:E25)</f>
-        <v>228500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="18">
-        <f>E27-E26</f>
-        <v>-228500</v>
+        <f>E25-E24</f>
+        <v>10800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1493,20 +1457,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1738,8 +1702,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -142,10 +142,10 @@
     <t>C11(4/64)</t>
   </si>
   <si>
-    <t>Deposit(01.12.2021)</t>
-  </si>
-  <si>
-    <t>Will be paid in advance(01.12.2021)</t>
+    <t>Need to deposit</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1189,11 +1189,11 @@
         <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>204000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1206,10 +1206,12 @@
       <c r="C12" s="3">
         <v>11380</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1220,10 +1222,12 @@
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1384,44 +1388,39 @@
       <c r="C24" s="26"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>204000</v>
+        <v>557200</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="19">
-        <v>214800</v>
+        <v>10800</v>
       </c>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="18">
         <f>E25-E24</f>
-        <v>10800</v>
+        <v>-546400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1433,6 +1432,11 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,12 +626,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,51 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44535</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,21 +1151,23 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1181,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1189,15 +1191,15 @@
         <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>102000</v>
+        <v>408000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1206,16 +1208,14 @@
       <c r="C12" s="3">
         <v>11380</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>227600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1223,15 +1223,15 @@
         <v>11380</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>227600</v>
+        <v>455200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1381,46 +1381,45 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>557200</v>
+        <v>1031400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="19">
-        <v>10800</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="19"/>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="18">
         <f>E25-E24</f>
-        <v>-546400</v>
+        <v>-1031400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1436,7 +1435,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1461,28 +1459,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1706,8 +1704,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -145,7 +145,7 @@
     <t>Need to deposit</t>
   </si>
   <si>
-    <t>Advance</t>
+    <t>Advance(-)</t>
   </si>
 </sst>
 </file>
@@ -626,6 +626,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,15 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44535</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44536</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,23 +1151,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1183,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1191,15 +1189,15 @@
         <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>408000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1215,7 +1213,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1229,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1247,21 +1245,23 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>130200</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1381,40 +1381,42 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1031400</v>
+        <v>687400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="19">
+        <v>-175</v>
+      </c>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="18">
-        <f>E25-E24</f>
-        <v>-1031400</v>
+        <f>E24-E25</f>
+        <v>687575</v>
       </c>
     </row>
   </sheetData>
@@ -1459,28 +1461,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1704,8 +1706,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1174,10 +1174,12 @@
       <c r="C10" s="3">
         <v>10200</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>0</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1189,11 +1191,11 @@
         <v>10200</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>102000</v>
+        <v>612000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1206,10 +1208,12 @@
       <c r="C12" s="3">
         <v>11380</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>0</v>
+        <v>341400</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1220,12 +1224,10 @@
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>40</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>455200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1252,12 +1254,10 @@
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>130200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1388,11 +1388,11 @@
       <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>687400</v>
+        <v>1157400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="19">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21"/>
     </row>
@@ -1416,7 +1416,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>687575</v>
+        <v>1157400</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Total=</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Need to deposit</t>
-  </si>
-  <si>
-    <t>Advance(-)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1069,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1175,11 +1172,11 @@
         <v>10200</v>
       </c>
       <c r="D10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>204000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1190,12 +1187,10 @@
       <c r="C11" s="3">
         <v>10200</v>
       </c>
-      <c r="D11" s="3">
-        <v>60</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>612000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1209,11 +1204,11 @@
         <v>11380</v>
       </c>
       <c r="D12" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>341400</v>
+        <v>455200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1224,10 +1219,12 @@
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>60</v>
+      </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>682800</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1254,10 +1251,12 @@
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>260400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1388,17 +1387,15 @@
       <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1157400</v>
+        <v>1500400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>41</v>
-      </c>
+      <c r="A25" s="34"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
@@ -1416,7 +1413,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>1157400</v>
+        <v>1500400</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1155,10 +1155,12 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1172,11 +1174,11 @@
         <v>10200</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>102000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1187,10 +1189,12 @@
       <c r="C11" s="3">
         <v>10200</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>30</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1203,12 +1207,10 @@
       <c r="C12" s="3">
         <v>11380</v>
       </c>
-      <c r="D12" s="3">
-        <v>40</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>455200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1219,12 +1221,10 @@
       <c r="C13" s="3">
         <v>11380</v>
       </c>
-      <c r="D13" s="3">
-        <v>60</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>682800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1251,12 +1251,10 @@
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>260400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1387,11 +1385,11 @@
       <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>1500400</v>
+        <v>594100</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1413,7 +1411,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>1500400</v>
+        <v>594100</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1155,12 +1155,10 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>84100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1173,12 +1171,10 @@
       <c r="C10" s="3">
         <v>10200</v>
       </c>
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E11" si="2">D10*C10</f>
-        <v>204000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1189,12 +1185,10 @@
       <c r="C11" s="3">
         <v>10200</v>
       </c>
-      <c r="D11" s="3">
-        <v>30</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
-        <v>306000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1251,10 +1245,12 @@
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>0</v>
+        <v>260400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1281,10 +1277,12 @@
       <c r="C17" s="3">
         <v>14300</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>429000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1385,11 +1383,11 @@
       <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>594100</v>
+        <v>689400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1411,7 +1409,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>594100</v>
+        <v>689400</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1245,12 +1245,10 @@
       <c r="C15" s="3">
         <v>13020</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f>D15*C15</f>
-        <v>260400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1278,11 +1276,11 @@
         <v>14300</v>
       </c>
       <c r="D17" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="4"/>
-        <v>429000</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1295,10 +1293,12 @@
       <c r="C18" s="3">
         <v>20640</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1383,11 +1383,11 @@
       <c r="C24" s="24"/>
       <c r="D24" s="12">
         <f>SUM(D6:D23)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18">
         <f>SUM(E6:E23)</f>
-        <v>689400</v>
+        <v>492400</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
       <c r="D26" s="24"/>
       <c r="E26" s="18">
         <f>E24-E25</f>
-        <v>689400</v>
+        <v>492400</v>
       </c>
     </row>
   </sheetData>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Total=</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Need to deposit</t>
+  </si>
+  <si>
+    <t>C21Y(3/32)</t>
   </si>
 </sst>
 </file>
@@ -623,6 +626,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,12 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L22" sqref="K22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1046,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1069,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1102,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1118,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1127,12 +1130,12 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E23" si="0">D7*C7</f>
+        <f t="shared" ref="E7:E25" si="0">D7*C7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1165,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1173,12 +1176,12 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E11" si="2">D10*C10</f>
+        <f t="shared" ref="E10:E13" si="2">D10*C10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1192,168 +1195,170 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>35</v>
+      <c r="A12" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>11380</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>10510</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E13" si="3">D12*C12</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>105100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="3">
+        <v>10510</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>157650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
         <v>11380</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13020</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
-        <f>D14*C14</f>
+        <f t="shared" ref="E14:E15" si="3">D14*C14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>13020</v>
+        <v>11380</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2">
-        <f>D15*C15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>21</v>
+      <c r="A16" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3">
-        <v>14300</v>
+        <v>13020</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E19" si="4">D16*C16</f>
+        <f>D16*C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
+        <v>13020</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>286000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
-        <f t="shared" si="4"/>
-        <v>206400</v>
+        <f t="shared" ref="E18:E21" si="4">D18*C18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>20640</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>14300</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>357500</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>36</v>
+      <c r="A20" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>36420</v>
+        <v>20640</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
-        <v>36420</v>
+        <v>20640</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>34</v>
+      <c r="A22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2">
@@ -1362,12 +1367,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3">
-        <v>31210</v>
+        <v>36420</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2">
@@ -1377,59 +1382,90 @@
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="12">
-        <f>SUM(D6:D23)</f>
-        <v>30</v>
-      </c>
-      <c r="E24" s="18">
-        <f>SUM(E6:E23)</f>
-        <v>492400</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>31210</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="12">
+        <f>SUM(D6:D25)</f>
+        <v>50</v>
+      </c>
+      <c r="E26" s="18">
+        <f>SUM(E6:E25)</f>
+        <v>620250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="18">
-        <f>E24-E25</f>
-        <v>492400</v>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="18">
+        <f>E26-E27</f>
+        <v>620250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A26:D26"/>
+  <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1454,20 +1490,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1699,8 +1735,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -121,9 +121,6 @@
     <t>1% Value</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t xml:space="preserve">GT </t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>C21Y(3/32)</t>
+  </si>
+  <si>
+    <t>C11(2+32)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L22" sqref="K22:L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44545</v>
+        <v>44550</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
@@ -1158,15 +1158,17 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>17</v>
@@ -1196,7 +1198,7 @@
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
@@ -1205,11 +1207,11 @@
         <v>10510</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>105100</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1220,17 +1222,15 @@
       <c r="C13" s="3">
         <v>10510</v>
       </c>
-      <c r="D13" s="3">
-        <v>15</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>157650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -1238,10 +1238,12 @@
       <c r="C14" s="3">
         <v>11380</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1252,15 +1254,17 @@
       <c r="C15" s="3">
         <v>11380</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>227600</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>17</v>
@@ -1298,10 +1302,12 @@
       <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>715000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1312,12 +1318,10 @@
       <c r="C19" s="3">
         <v>14300</v>
       </c>
-      <c r="D19" s="3">
-        <v>25</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>357500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1352,7 +1356,7 @@
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>5</v>
@@ -1369,7 +1373,7 @@
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3">
         <v>36420</v>
@@ -1382,7 +1386,7 @@
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>17</v>
@@ -1418,11 +1422,11 @@
       <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>620250</v>
+        <v>1350700</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1437,21 +1441,18 @@
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>620250</v>
+        <v>1350700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1466,6 +1467,9 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1476,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,12 +626,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,51 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44550</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+        <v>44551</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,23 +1151,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3">
-        <v>10</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>84100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1183,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1206,16 +1204,14 @@
       <c r="C12" s="3">
         <v>10510</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1225,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1238,32 +1234,28 @@
       <c r="C14" s="3">
         <v>11380</v>
       </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>113800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>11380</v>
       </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>227600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1279,21 +1271,23 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>13020</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>25</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>325500</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1302,16 +1296,14 @@
       <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>715000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1341,7 +1333,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1355,7 +1347,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1371,7 +1363,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1385,7 +1377,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1401,7 +1393,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1415,44 +1407,45 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>1350700</v>
+        <v>325500</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>1350700</v>
+        <v>325500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1469,7 +1462,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1494,28 +1486,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1739,8 +1731,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -626,6 +626,21 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,12 +677,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,15 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,22 +1049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1072,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44551</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+        <v>44553</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1204,14 +1204,16 @@
       <c r="C12" s="3">
         <v>10510</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>210200</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1227,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1234,28 +1236,32 @@
       <c r="C14" s="3">
         <v>11380</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>11380</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1271,23 +1277,21 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>13020</v>
       </c>
-      <c r="D17" s="3">
-        <v>25</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>325500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1303,21 +1307,23 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3">
         <v>14300</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1333,7 +1339,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1353,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1363,7 +1369,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1377,7 +1383,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1393,7 +1399,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1407,44 +1413,46 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>325500</v>
+        <v>580800</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>325500</v>
+        <v>580800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -1460,8 +1468,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1486,28 +1492,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -1731,8 +1737,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E28"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44553</v>
+        <v>44557</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1204,12 +1204,10 @@
       <c r="C12" s="3">
         <v>10510</v>
       </c>
-      <c r="D12" s="3">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
-        <v>210200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1236,12 +1234,10 @@
       <c r="C14" s="3">
         <v>11380</v>
       </c>
-      <c r="D14" s="3">
-        <v>10</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <f t="shared" ref="E14:E15" si="3">D14*C14</f>
-        <v>113800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1253,11 +1249,11 @@
         <v>11380</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>113800</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1300,10 +1296,12 @@
       <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>40</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>572000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1314,12 +1312,10 @@
       <c r="C19" s="3">
         <v>14300</v>
       </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <f t="shared" si="4"/>
-        <v>143000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1332,10 +1328,12 @@
       <c r="C20" s="3">
         <v>20640</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1420,11 +1418,11 @@
       <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>580800</v>
+        <v>1347400</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1446,11 +1444,13 @@
       <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>580800</v>
+        <v>1347400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A28:D28"/>
@@ -1466,8 +1466,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
@@ -1158,10 +1158,12 @@
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1249,11 +1251,11 @@
         <v>11380</v>
       </c>
       <c r="D15" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>569000</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -1280,10 +1282,12 @@
       <c r="C17" s="3">
         <v>13020</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>260400</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1296,12 +1300,10 @@
       <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D18" s="3">
-        <v>40</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>572000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1328,12 +1330,10 @@
       <c r="C20" s="3">
         <v>20640</v>
       </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>206400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1418,11 +1418,11 @@
       <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>1347400</v>
+        <v>542400</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1444,16 +1444,11 @@
       <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>1347400</v>
+        <v>542400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1466,6 +1461,11 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Total=</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>C11(2+32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -626,55 +629,55 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,22 +1052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1072,20 +1075,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1105,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1151,23 +1154,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3">
-        <v>20</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>168200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1183,7 +1184,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1198,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1213,7 +1214,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1228,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1243,7 +1244,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1251,15 +1252,15 @@
         <v>11380</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>113800</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1274,24 +1275,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>13020</v>
       </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>260400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1306,8 +1305,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1320,8 +1319,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1336,8 +1335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1350,8 +1349,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1366,8 +1365,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1380,8 +1379,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1396,8 +1395,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+    <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1409,46 +1408,51 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="N25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
         <v>50</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>542400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
+        <v>569000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>542400</v>
+        <v>569000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -1464,8 +1468,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1490,20 +1492,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1735,8 +1737,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>

--- a/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
+++ b/Realme/Others/Requisition for Mugdho Corporation/realme requisition sheet.xlsx
@@ -629,6 +629,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,12 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1052,22 +1052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1075,20 +1075,20 @@
       </c>
       <c r="B3" s="9">
         <f ca="1">TODAY()</f>
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1124,7 +1124,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1154,21 +1154,23 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>8410</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1184,7 +1186,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1200,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1214,7 +1216,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1244,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1262,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1269,28 +1271,32 @@
       <c r="C16" s="3">
         <v>13020</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
       <c r="E16" s="2">
         <f>D16*C16</f>
-        <v>0</v>
+        <v>130200</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>13020</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
       <c r="E17" s="2">
         <f>D17*C17</f>
-        <v>0</v>
+        <v>260400</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1299,14 +1305,16 @@
       <c r="C18" s="3">
         <v>14300</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ref="E18:E21" si="4">D18*C18</f>
-        <v>0</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
@@ -1320,7 +1328,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1329,14 +1337,16 @@
       <c r="C20" s="3">
         <v>20640</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>206400</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1360,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1366,7 +1376,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
@@ -1380,7 +1390,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1396,7 +1406,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
@@ -1413,44 +1423,45 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="12">
         <f>SUM(D6:D25)</f>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E26" s="18">
         <f>SUM(E6:E25)</f>
-        <v>569000</v>
+        <v>1536100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="19">
         <v>0</v>
       </c>
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="18">
         <f>E26-E27</f>
-        <v>569000</v>
+        <v>1536100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:E1"/>
@@ -1467,7 +1478,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1492,20 +1502,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1737,8 +1747,8 @@
       <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="13">
         <f>SUM(D7:D19)</f>
         <v>0</v>
